--- a/表结构设计.xlsx
+++ b/表结构设计.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iworks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="960" windowWidth="24180" windowHeight="18885" tabRatio="894" activeTab="4"/>
+    <workbookView xWindow="660" yWindow="960" windowWidth="20730" windowHeight="11760" tabRatio="894" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="系统常量表" sheetId="28" r:id="rId1"/>
     <sheet name="字典表" sheetId="31" r:id="rId2"/>
     <sheet name="字典表数据表" sheetId="32" r:id="rId3"/>
     <sheet name="用户信息表" sheetId="33" r:id="rId4"/>
-    <sheet name="用户信息变更记录表" sheetId="39" r:id="rId5"/>
+    <sheet name="用户登陆记录表" sheetId="39" r:id="rId5"/>
     <sheet name="用户信息扩展表" sheetId="34" r:id="rId6"/>
     <sheet name="菜单资源表" sheetId="35" r:id="rId7"/>
     <sheet name="用户角色表" sheetId="36" r:id="rId8"/>
@@ -24,7 +19,6 @@
     <sheet name="用户资源关联表" sheetId="38" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="222">
   <si>
     <t>表名</t>
   </si>
@@ -896,10 +890,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>clearworld.t_user_operation_record</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>用户信息变更记录表</t>
     <rPh sb="0" eb="1">
       <t>kuai'jiegogn'nengpei'zhibiao</t>
@@ -907,11 +897,74 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>用户登陆信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
+    <t>1-登录；2-变更密码；……</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>browser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>system</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_pkid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户主键</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆IP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆地址</t>
+    <rPh sb="0" eb="4">
+      <t>yong'hu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用的浏览器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用的操作系统</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -919,11 +972,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1-登录；2-变更密码；……</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-正常；2-异常；</t>
+    <t>登陆操作结果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-成功；2-失败；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>clearworld.t_user_login_record</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登陆记录表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1429,31 +1490,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1465,7 +1508,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1481,6 +1530,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1863,49 +1924,49 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
@@ -1921,59 +1982,59 @@
       <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="31" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="31" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="37"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="12"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
@@ -2196,12 +2257,6 @@
     <row r="28" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="C9:D9"/>
@@ -2210,6 +2265,12 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2250,47 +2311,47 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
@@ -2306,53 +2367,53 @@
       <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="31" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="12"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="37"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="12"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
@@ -2618,6 +2679,12 @@
     <row r="31" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="C9:D9"/>
@@ -2626,12 +2693,6 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2672,49 +2733,49 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
@@ -2730,59 +2791,59 @@
       <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="31" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="31" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="37"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="12"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
@@ -3005,12 +3066,6 @@
     <row r="28" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="C9:D9"/>
@@ -3019,6 +3074,12 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3059,49 +3120,49 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
@@ -3117,69 +3178,69 @@
       <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="31" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="31" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="34" t="s">
+      <c r="D11" s="37"/>
+      <c r="E11" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="37"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
@@ -3436,12 +3497,6 @@
     <row r="30" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="C9:D9"/>
@@ -3450,6 +3505,12 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3462,7 +3523,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="B16" sqref="B16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3490,49 +3551,49 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
@@ -3548,69 +3609,69 @@
       <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="31" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="31" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="34" t="s">
+      <c r="D11" s="37"/>
+      <c r="E11" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="37"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
@@ -3874,6 +3935,472 @@
       </c>
       <c r="D28" s="27" t="s">
         <v>52</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B30" s="25"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B31" s="25"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="47.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="12"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="46"/>
+    </row>
+    <row r="12" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="12"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B15" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="28"/>
+      <c r="B20" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="28"/>
+      <c r="B21" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="28"/>
+      <c r="B22" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B23" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="27">
+        <v>1</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B25" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="27">
+        <v>1</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B26" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B27" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B28" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="E28" s="27" t="s">
         <v>24</v>
@@ -3932,432 +4459,6 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="7" width="47.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="36"/>
-    </row>
-    <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-    </row>
-    <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="12"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="37"/>
-    </row>
-    <row r="12" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="12"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-    </row>
-    <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B17" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
-      <c r="B18" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B22" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="27">
-        <v>1</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B23" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="27">
-        <v>1</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B25" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B26" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B28" s="25"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B29" s="25"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4398,49 +4499,49 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
@@ -4456,69 +4557,69 @@
       <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="31" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="31" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="34" t="s">
+      <c r="D11" s="37"/>
+      <c r="E11" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="37"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
@@ -4820,12 +4921,6 @@
     <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="C9:D9"/>
@@ -4834,6 +4929,12 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4874,49 +4975,49 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
@@ -4932,53 +5033,53 @@
       <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="31" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="12"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="37"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="12"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
@@ -5280,12 +5381,6 @@
     <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="C9:D9"/>
@@ -5294,6 +5389,12 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5334,47 +5435,47 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
@@ -5390,53 +5491,53 @@
       <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="31" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="12"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="37"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="12"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
@@ -5668,6 +5769,12 @@
     <row r="29" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="C9:D9"/>
@@ -5676,12 +5783,6 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5722,47 +5823,47 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
@@ -5778,55 +5879,55 @@
       <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="31" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="37"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="12"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
@@ -6082,6 +6183,12 @@
     <row r="30" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="C9:D9"/>
@@ -6090,12 +6197,6 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
